--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.6390553753366</v>
+        <v>108.8596644021004</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.8068895760785</v>
+        <v>148.9465953843368</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7544425709579</v>
+        <v>134.7313413687557</v>
       </c>
       <c r="AD2" t="n">
-        <v>84639.0553753366</v>
+        <v>108859.6644021004</v>
       </c>
       <c r="AE2" t="n">
-        <v>115806.8895760785</v>
+        <v>148946.5953843368</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421576100998378e-06</v>
+        <v>8.181073419270448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104754.4425709579</v>
+        <v>134731.3413687558</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.0038141762012</v>
+        <v>83.30967454898558</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.73162162041557</v>
+        <v>113.9879720813231</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.02670896052452</v>
+        <v>103.1091200090346</v>
       </c>
       <c r="AD3" t="n">
-        <v>59003.81417620119</v>
+        <v>83309.67454898558</v>
       </c>
       <c r="AE3" t="n">
-        <v>80731.62162041556</v>
+        <v>113987.9720813231</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.509232038707591e-06</v>
+        <v>1.019352166805109e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.757523148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>73026.70896052451</v>
+        <v>103109.1200090346</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.22832897361042</v>
+        <v>86.99213061487853</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9307185412957</v>
+        <v>119.0264709291712</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.10715522791114</v>
+        <v>107.6667515984232</v>
       </c>
       <c r="AD2" t="n">
-        <v>75228.32897361042</v>
+        <v>86992.13061487854</v>
       </c>
       <c r="AE2" t="n">
-        <v>102930.7185412957</v>
+        <v>119026.4709291712</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.994677942432302e-06</v>
+        <v>9.520626998903191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.148148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>93107.15522791113</v>
+        <v>107666.7515984232</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.72373813256002</v>
+        <v>80.16582154342255</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.61192098765152</v>
+        <v>109.686413702108</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.20474817762312</v>
+        <v>99.21809632425538</v>
       </c>
       <c r="AD3" t="n">
-        <v>56723.73813256001</v>
+        <v>80165.82154342256</v>
       </c>
       <c r="AE3" t="n">
-        <v>77611.92098765151</v>
+        <v>109686.413702108</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.631800501588465e-06</v>
+        <v>1.073508092530761e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>70204.74817762311</v>
+        <v>99218.09632425538</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.62507626051289</v>
+        <v>72.08860826025469</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.31814804609058</v>
+        <v>98.63481414658256</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.2709423378557</v>
+        <v>89.22124591928834</v>
       </c>
       <c r="AD2" t="n">
-        <v>61625.07626051289</v>
+        <v>72088.60826025468</v>
       </c>
       <c r="AE2" t="n">
-        <v>84318.14804609059</v>
+        <v>98634.81414658256</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.681122187088228e-06</v>
+        <v>1.209930349215163e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.08738425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>76270.9423378557</v>
+        <v>89221.24591928834</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.46272286228294</v>
+        <v>73.32097410011171</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.41356779524905</v>
+        <v>100.3209914568178</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.69339571094912</v>
+        <v>90.74649683360003</v>
       </c>
       <c r="AD2" t="n">
-        <v>51462.72286228294</v>
+        <v>73320.97410011171</v>
       </c>
       <c r="AE2" t="n">
-        <v>70413.56779524905</v>
+        <v>100320.9914568178</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.944684246118434e-06</v>
+        <v>1.206976428518641e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.824074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>63693.39571094912</v>
+        <v>90746.49683360003</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.53947014334236</v>
+        <v>80.46185453673687</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.8327738630169</v>
+        <v>110.0914591036144</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.92733018207831</v>
+        <v>99.58448476112689</v>
       </c>
       <c r="AD2" t="n">
-        <v>60539.47014334236</v>
+        <v>80461.85453673686</v>
       </c>
       <c r="AE2" t="n">
-        <v>82832.77386301689</v>
+        <v>110091.4591036144</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.451712213181381e-06</v>
+        <v>1.213989824829453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.342013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>74927.33018207831</v>
+        <v>99584.48476112689</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.64784805778049</v>
+        <v>88.52516789392321</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.8729671770184</v>
+        <v>121.1240401671905</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.86403837980413</v>
+        <v>109.5641317723236</v>
       </c>
       <c r="AD2" t="n">
-        <v>76647.84805778049</v>
+        <v>88525.16789392321</v>
       </c>
       <c r="AE2" t="n">
-        <v>104872.9671770184</v>
+        <v>121124.0401671905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906468697056618e-06</v>
+        <v>9.276972753629839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.174189814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>94864.03837980413</v>
+        <v>109564.1317723236</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.26650177645308</v>
+        <v>80.93562157706482</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.35455415026762</v>
+        <v>110.7396880693175</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.87650547349159</v>
+        <v>100.1708476641386</v>
       </c>
       <c r="AD3" t="n">
-        <v>57266.50177645308</v>
+        <v>80935.62157706483</v>
       </c>
       <c r="AE3" t="n">
-        <v>78354.55415026762</v>
+        <v>110739.6880693175</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604093081524208e-06</v>
+        <v>1.059601559412652e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.780671296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>70876.50547349159</v>
+        <v>100170.8476641386</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.47314798743643</v>
+        <v>80.07232595703371</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.74202896337943</v>
+        <v>109.5584889160767</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.84524584830096</v>
+        <v>99.10238050025929</v>
       </c>
       <c r="AD2" t="n">
-        <v>60473.14798743643</v>
+        <v>80072.32595703371</v>
       </c>
       <c r="AE2" t="n">
-        <v>82742.02896337943</v>
+        <v>109558.4889160767</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.20172190805361e-06</v>
+        <v>1.192529467970563e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>74845.24584830097</v>
+        <v>99102.38050025929</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.14024193940862</v>
+        <v>77.84548241815067</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.4453116372612</v>
+        <v>106.5116233447751</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.24491698277805</v>
+        <v>96.34630350277902</v>
       </c>
       <c r="AD2" t="n">
-        <v>55140.24193940862</v>
+        <v>77845.48241815067</v>
       </c>
       <c r="AE2" t="n">
-        <v>75445.3116372612</v>
+        <v>106511.6233447751</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667708808655851e-06</v>
+        <v>1.110863093760277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>68244.91698277806</v>
+        <v>96346.30350277902</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.49140453283101</v>
+        <v>77.19664501157307</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.557543672896</v>
+        <v>105.6238553804099</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.44187634694144</v>
+        <v>95.54326286694238</v>
       </c>
       <c r="AD3" t="n">
-        <v>54491.404532831</v>
+        <v>77196.64501157307</v>
       </c>
       <c r="AE3" t="n">
-        <v>74557.543672896</v>
+        <v>105623.8553804099</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.760013670045982e-06</v>
+        <v>1.128954719028032e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>67441.87634694144</v>
+        <v>95543.26286694239</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.57043134575382</v>
+        <v>86.21639812030928</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0305539824679</v>
+        <v>117.9650795071997</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.29290111118864</v>
+        <v>106.7066578840922</v>
       </c>
       <c r="AD2" t="n">
-        <v>74570.43134575382</v>
+        <v>86216.39812030928</v>
       </c>
       <c r="AE2" t="n">
-        <v>102030.5539824679</v>
+        <v>117965.0795071997</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.016890455566703e-06</v>
+        <v>9.645990737150881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.16261574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>92292.90111118864</v>
+        <v>106706.6578840922</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.01284156826909</v>
+        <v>79.21925524570631</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.63924094584618</v>
+        <v>108.3912799340155</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.32489935384237</v>
+        <v>98.04656830525755</v>
       </c>
       <c r="AD3" t="n">
-        <v>56012.84156826909</v>
+        <v>79219.25524570631</v>
       </c>
       <c r="AE3" t="n">
-        <v>76639.24094584618</v>
+        <v>108391.2799340155</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.671417700729025e-06</v>
+        <v>1.09044522881786e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.798032407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>69324.89935384237</v>
+        <v>98046.56830525755</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.23503256820899</v>
+        <v>105.2501512463555</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1493553964814</v>
+        <v>144.0079002441673</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.5414169165698</v>
+        <v>130.2639883612603</v>
       </c>
       <c r="AD2" t="n">
-        <v>81235.03256820899</v>
+        <v>105250.1512463555</v>
       </c>
       <c r="AE2" t="n">
-        <v>111149.3553964814</v>
+        <v>144007.9002441673</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.619707389522251e-06</v>
+        <v>8.606164478393442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.315972222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>100541.4169165698</v>
+        <v>130263.9883612603</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.01492873486676</v>
+        <v>83.11529875903391</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.7468290499215</v>
+        <v>113.7220185502567</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.04046501430217</v>
+        <v>102.868548709705</v>
       </c>
       <c r="AD3" t="n">
-        <v>59014.92873486676</v>
+        <v>83115.2987590339</v>
       </c>
       <c r="AE3" t="n">
-        <v>80746.82904992151</v>
+        <v>113722.0185502567</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.485353290943972e-06</v>
+        <v>1.021879713659583e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>73040.46501430217</v>
+        <v>102868.548709705</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.9538208592697</v>
+        <v>75.10944698291588</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.45375385732625</v>
+        <v>102.7680589569242</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.53886927868143</v>
+        <v>92.96001964597787</v>
       </c>
       <c r="AD2" t="n">
-        <v>52953.8208592697</v>
+        <v>75109.44698291588</v>
       </c>
       <c r="AE2" t="n">
-        <v>72453.75385732624</v>
+        <v>102768.0589569242</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.817766565575672e-06</v>
+        <v>1.166169769249652e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.847222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>65538.86927868144</v>
+        <v>92960.01964597787</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.2354425521473</v>
+        <v>72.88078106757024</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.15327813376472</v>
+        <v>99.71869992974892</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.02636878207491</v>
+        <v>90.20168716455291</v>
       </c>
       <c r="AD2" t="n">
-        <v>62235.4425521473</v>
+        <v>72880.78106757023</v>
       </c>
       <c r="AE2" t="n">
-        <v>85153.27813376472</v>
+        <v>99718.69992974892</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.742866190371978e-06</v>
+        <v>1.201443521714697e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.006365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>77026.36878207492</v>
+        <v>90201.6871645529</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.07542124094469</v>
+        <v>71.34089595238959</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.56608579924972</v>
+        <v>97.61176118022313</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.59065585632707</v>
+        <v>88.29583169217408</v>
       </c>
       <c r="AD2" t="n">
-        <v>61075.42124094469</v>
+        <v>71340.89595238959</v>
       </c>
       <c r="AE2" t="n">
-        <v>83566.08579924972</v>
+        <v>97611.76118022313</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.584462091632299e-06</v>
+        <v>1.213981513944158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.197337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>75590.65585632708</v>
+        <v>88295.83169217408</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.87609378990575</v>
+        <v>89.81559712596605</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.97579835588884</v>
+        <v>122.8896623721905</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.72056426721463</v>
+        <v>111.1612454721452</v>
       </c>
       <c r="AD2" t="n">
-        <v>70876.09378990575</v>
+        <v>89815.59712596604</v>
       </c>
       <c r="AE2" t="n">
-        <v>96975.79835588884</v>
+        <v>122889.6623721905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.756462310796391e-06</v>
+        <v>1.131337385721045e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.030671296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>87720.56426721462</v>
+        <v>111161.2454721452</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.26824443698548</v>
+        <v>81.22941618472071</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.72518265217452</v>
+        <v>111.1416708128154</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.11632311486612</v>
+        <v>100.5344657387835</v>
       </c>
       <c r="AD2" t="n">
-        <v>58268.24443698548</v>
+        <v>81229.4161847207</v>
       </c>
       <c r="AE2" t="n">
-        <v>79725.18265217452</v>
+        <v>111141.6708128154</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.38365583188424e-06</v>
+        <v>1.044740511667653e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.977430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>72116.32311486611</v>
+        <v>100534.4657387835</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.41558969172722</v>
+        <v>78.37676143946244</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.82205457946884</v>
+        <v>107.2385427401097</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.58570410734356</v>
+        <v>97.00384673126089</v>
       </c>
       <c r="AD3" t="n">
-        <v>55415.58969172722</v>
+        <v>78376.76143946244</v>
       </c>
       <c r="AE3" t="n">
-        <v>75822.05457946884</v>
+        <v>107238.5427401097</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.685215893091956e-06</v>
+        <v>1.103260599593558e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.818287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>68585.70410734355</v>
+        <v>97003.8467312609</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.64399690639641</v>
+        <v>90.63091711907177</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6041860955653</v>
+        <v>124.0052191561366</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.3345935980556</v>
+        <v>112.1703350823257</v>
       </c>
       <c r="AD2" t="n">
-        <v>78643.99690639641</v>
+        <v>90630.91711907176</v>
       </c>
       <c r="AE2" t="n">
-        <v>107604.1860955653</v>
+        <v>124005.2191561366</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.783039090791583e-06</v>
+        <v>8.97485738213299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97334.59359805561</v>
+        <v>112170.3350823257</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.22773792809024</v>
+        <v>82.11605848176724</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.66975985968303</v>
+        <v>112.3548139195313</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.0661897959036</v>
+        <v>101.6318281700519</v>
       </c>
       <c r="AD3" t="n">
-        <v>58227.73792809024</v>
+        <v>82116.05848176724</v>
       </c>
       <c r="AE3" t="n">
-        <v>79669.75985968302</v>
+        <v>112354.8139195313</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530659177678922e-06</v>
+        <v>1.037768590359533e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.792245370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>72066.1897959036</v>
+        <v>101631.8281700519</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.70682603628669</v>
+        <v>101.0273014713043</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1631281504495</v>
+        <v>138.2300108829613</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3629980252476</v>
+        <v>125.0375326513674</v>
       </c>
       <c r="AD2" t="n">
-        <v>82706.82603628669</v>
+        <v>101027.3014713043</v>
       </c>
       <c r="AE2" t="n">
-        <v>113163.1281504495</v>
+        <v>138230.0108829613</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.956037141001613e-06</v>
+        <v>9.893748667839151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>102362.9980252477</v>
+        <v>125037.5326513674</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.97302628123909</v>
+        <v>73.51557937535301</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.11178744606248</v>
+        <v>100.5872589797817</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.32497825824656</v>
+        <v>90.98735215788111</v>
       </c>
       <c r="AD2" t="n">
-        <v>51973.02628123909</v>
+        <v>73515.57937535302</v>
       </c>
       <c r="AE2" t="n">
-        <v>71111.78744606247</v>
+        <v>100587.2589797817</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.779909546400147e-06</v>
+        <v>1.190247211832688e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.942708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64324.97825824656</v>
+        <v>90987.35215788111</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.98845661150171</v>
+        <v>76.4257304144769</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.86938813843733</v>
+        <v>104.5690560183118</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.81939741085888</v>
+        <v>94.58913207554235</v>
       </c>
       <c r="AD2" t="n">
-        <v>53988.45661150171</v>
+        <v>76425.7304144769</v>
       </c>
       <c r="AE2" t="n">
-        <v>73869.38813843732</v>
+        <v>104569.0560183117</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.743613890542724e-06</v>
+        <v>1.13791565841584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.85011574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>66819.39741085889</v>
+        <v>94589.13207554235</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.12083226981717</v>
+        <v>76.55810607279236</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.05051035414631</v>
+        <v>104.7501782340208</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.9832335765073</v>
+        <v>94.75296824119079</v>
       </c>
       <c r="AD3" t="n">
-        <v>54120.83226981717</v>
+        <v>76558.10607279236</v>
       </c>
       <c r="AE3" t="n">
-        <v>74050.51035414632</v>
+        <v>104750.1782340208</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.742481887450291e-06</v>
+        <v>1.137691387761718e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.853009259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>66983.23357650731</v>
+        <v>94752.96824119079</v>
       </c>
     </row>
   </sheetData>
